--- a/data/examples/上传文件格式说明/7-面文件-行政区名称.xlsx
+++ b/data/examples/上传文件格式说明/7-面文件-行政区名称.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hedongran/baidu/mapV-editor/data/examples/上传文件格式说明/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D397E68D-06E3-234A-B6D6-29B12612B72B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="4480" windowWidth="25600" windowHeight="14300"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -319,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +379,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -474,6 +481,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="21">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -484,23 +492,25 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -792,14 +802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A14" sqref="A14:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -910,7 +920,6 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -924,12 +933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -942,14 +951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
